--- a/data/Stations/Saisie_stations_chroniques.xlsx
+++ b/data/Stations/Saisie_stations_chroniques.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac27/NAS-JB/Outils/Physico-chimie/Thermie/Fiches_notices/Saisie stations/Station_fiche_saisie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Fixe-FD39/Nextcloud_FD/NAS-JB/Outils/Physico-chimie/Thermie/Fiches_notices/Notice/notice-thermie/data/Stations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3AF16A-D7AC-6944-87F4-57D345C610D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC8CCF-78C2-B748-870E-3C24EEA163A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26340" yWindow="6320" windowWidth="23860" windowHeight="11840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="5360" windowWidth="23860" windowHeight="11840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulaire" sheetId="1" r:id="rId1"/>
     <sheet name="Àpropos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Modèle_saisie_stations" localSheetId="0">Formulaire!$A$1:$AD$1</definedName>
+    <definedName name="Modèle_saisie_stations" localSheetId="0">Formulaire!$A$1:$AF$1</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
   <extLst>
@@ -84,12 +84,6 @@
     <t>chsta_coderhj</t>
   </si>
   <si>
-    <t>Version3</t>
-  </si>
-  <si>
-    <t>2018-10-30</t>
-  </si>
-  <si>
     <t>chsta_codemo</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>chsta_remarques</t>
+  </si>
+  <si>
+    <t>chsta_ombrage</t>
+  </si>
+  <si>
+    <t>chsta_facies</t>
   </si>
 </sst>
 </file>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AI1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,110 +625,117 @@
     <col min="25" max="25" width="15.6640625" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
     <col min="27" max="27" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="18.83203125" customWidth="1"/>
+    <col min="30" max="30" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -741,19 +748,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37B3DF7-7C2F-3746-BC81-5297C4FE5D5A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1">
+        <v>20201218</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
